--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2143979625585434</v>
+        <v>0.1275099798234569</v>
       </c>
       <c r="C2">
-        <v>1.424134207528472</v>
+        <v>1.51412274867419</v>
       </c>
       <c r="D2">
-        <v>7.525940274036349</v>
+        <v>9.324399010553055</v>
       </c>
       <c r="E2">
-        <v>2.743344723879292</v>
+        <v>3.053587891407918</v>
       </c>
       <c r="F2">
-        <v>2.796421391031461</v>
+        <v>3.122720766858579</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4670168130507297</v>
+        <v>0.02989055876380673</v>
       </c>
       <c r="C3">
-        <v>1.853629581901463</v>
+        <v>1.469662598613318</v>
       </c>
       <c r="D3">
-        <v>13.55051072646238</v>
+        <v>8.914287453216375</v>
       </c>
       <c r="E3">
-        <v>3.681101835926627</v>
+        <v>2.985680400380519</v>
       </c>
       <c r="F3">
-        <v>3.737282769615654</v>
+        <v>3.059258686037979</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.8354076150457171</v>
+        <v>-0.4518499121642435</v>
       </c>
       <c r="C4">
-        <v>1.386534768542286</v>
+        <v>0.921173439906215</v>
       </c>
       <c r="D4">
-        <v>7.40374990259892</v>
+        <v>3.928571563801758</v>
       </c>
       <c r="E4">
-        <v>2.720983260257019</v>
+        <v>1.982062452043769</v>
       </c>
       <c r="F4">
-        <v>2.653513938212625</v>
+        <v>1.980006172419652</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04486636216424342</v>
+        <v>-0.02887301196522735</v>
       </c>
       <c r="C5">
-        <v>0.5141898899062147</v>
+        <v>0.640656743365336</v>
       </c>
       <c r="D5">
-        <v>0.5563440360261616</v>
+        <v>0.9487815114782999</v>
       </c>
       <c r="E5">
-        <v>0.7458847337398464</v>
+        <v>0.9740541624972915</v>
       </c>
       <c r="F5">
-        <v>0.7638758824313834</v>
+        <v>1.000305768600247</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08415703371898316</v>
+        <v>-0.01274630076391603</v>
       </c>
       <c r="C6">
-        <v>0.7459901986017395</v>
+        <v>0.6862276495140773</v>
       </c>
       <c r="D6">
-        <v>1.174992571369782</v>
+        <v>0.9980462345064838</v>
       </c>
       <c r="E6">
-        <v>1.08397074285692</v>
+        <v>0.9990226396366019</v>
       </c>
       <c r="F6">
-        <v>1.110312597020984</v>
+        <v>1.027902140965356</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2038590712083605</v>
+        <v>-0.1249830523586888</v>
       </c>
       <c r="C7">
-        <v>0.6468456134312068</v>
+        <v>0.5228446924603924</v>
       </c>
       <c r="D7">
-        <v>0.8625708541187559</v>
+        <v>0.510271894425645</v>
       </c>
       <c r="E7">
-        <v>0.9287469268421596</v>
+        <v>0.7143331816636023</v>
       </c>
       <c r="F7">
-        <v>0.9323664388718182</v>
+        <v>0.7249598793997479</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1285815229469241</v>
+        <v>-0.03908073210606425</v>
       </c>
       <c r="C8">
-        <v>0.5264431630486278</v>
+        <v>0.476833024709525</v>
       </c>
       <c r="D8">
-        <v>0.5203200017941761</v>
+        <v>0.409094268446219</v>
       </c>
       <c r="E8">
-        <v>0.7213321022900452</v>
+        <v>0.6396047751902881</v>
       </c>
       <c r="F8">
-        <v>0.7316238571562934</v>
+        <v>0.6593467189670075</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.08851026789393576</v>
+        <v>0.04629975205653263</v>
       </c>
       <c r="C9">
-        <v>0.4260801985527543</v>
+        <v>0.4102896313898315</v>
       </c>
       <c r="D9">
-        <v>0.3054846069715224</v>
+        <v>0.3245141161252205</v>
       </c>
       <c r="E9">
-        <v>0.5527066192579227</v>
+        <v>0.5696614048057148</v>
       </c>
       <c r="F9">
-        <v>0.5634659783389385</v>
+        <v>0.5877047811049635</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007460085389865952</v>
+        <v>0.007747740397374882</v>
       </c>
       <c r="C10">
-        <v>0.3714499647231649</v>
+        <v>0.3348337809727632</v>
       </c>
       <c r="D10">
-        <v>0.2993920067773447</v>
+        <v>0.261718090368209</v>
       </c>
       <c r="E10">
-        <v>0.5471672566750908</v>
+        <v>0.5115839035468268</v>
       </c>
       <c r="F10">
-        <v>0.5663192757087402</v>
+        <v>0.5308348200579344</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.005873690370570317</v>
+        <v>0.008384872907047361</v>
       </c>
       <c r="C11">
-        <v>0.3581201956056038</v>
+        <v>0.3303106150213118</v>
       </c>
       <c r="D11">
-        <v>0.2817709375354674</v>
+        <v>0.2394032953374836</v>
       </c>
       <c r="E11">
-        <v>0.5308210032915686</v>
+        <v>0.4892885603991611</v>
       </c>
       <c r="F11">
-        <v>0.5524621921347255</v>
+        <v>0.509192895683094</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1275099798234569</v>
+        <v>0.2143979625585434</v>
       </c>
       <c r="C2">
-        <v>1.51412274867419</v>
+        <v>1.424134207528472</v>
       </c>
       <c r="D2">
-        <v>9.324399010553055</v>
+        <v>7.525940274036349</v>
       </c>
       <c r="E2">
-        <v>3.053587891407918</v>
+        <v>2.743344723879292</v>
       </c>
       <c r="F2">
-        <v>3.122720766858579</v>
+        <v>2.796421391031461</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02989055876380673</v>
+        <v>0.4670168130507297</v>
       </c>
       <c r="C3">
-        <v>1.469662598613318</v>
+        <v>1.853629581901463</v>
       </c>
       <c r="D3">
-        <v>8.914287453216375</v>
+        <v>13.55051072646238</v>
       </c>
       <c r="E3">
-        <v>2.985680400380519</v>
+        <v>3.681101835926627</v>
       </c>
       <c r="F3">
-        <v>3.059258686037979</v>
+        <v>3.737282769615654</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4518499121642435</v>
+        <v>-0.8354076150457171</v>
       </c>
       <c r="C4">
-        <v>0.921173439906215</v>
+        <v>1.386534768542286</v>
       </c>
       <c r="D4">
-        <v>3.928571563801758</v>
+        <v>7.40374990259892</v>
       </c>
       <c r="E4">
-        <v>1.982062452043769</v>
+        <v>2.720983260257019</v>
       </c>
       <c r="F4">
-        <v>1.980006172419652</v>
+        <v>2.653513938212625</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02887301196522735</v>
+        <v>-0.04486636216424342</v>
       </c>
       <c r="C5">
-        <v>0.640656743365336</v>
+        <v>0.5141898899062147</v>
       </c>
       <c r="D5">
-        <v>0.9487815114782999</v>
+        <v>0.5563440360261616</v>
       </c>
       <c r="E5">
-        <v>0.9740541624972915</v>
+        <v>0.7458847337398464</v>
       </c>
       <c r="F5">
-        <v>1.000305768600247</v>
+        <v>0.7638758824313834</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01274630076391603</v>
+        <v>0.08415703371898316</v>
       </c>
       <c r="C6">
-        <v>0.6862276495140773</v>
+        <v>0.7459901986017395</v>
       </c>
       <c r="D6">
-        <v>0.9980462345064838</v>
+        <v>1.174992571369782</v>
       </c>
       <c r="E6">
-        <v>0.9990226396366019</v>
+        <v>1.08397074285692</v>
       </c>
       <c r="F6">
-        <v>1.027902140965356</v>
+        <v>1.110312597020984</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1249830523586888</v>
+        <v>-0.2038590712083605</v>
       </c>
       <c r="C7">
-        <v>0.5228446924603924</v>
+        <v>0.6468456134312068</v>
       </c>
       <c r="D7">
-        <v>0.510271894425645</v>
+        <v>0.8625708541187559</v>
       </c>
       <c r="E7">
-        <v>0.7143331816636023</v>
+        <v>0.9287469268421596</v>
       </c>
       <c r="F7">
-        <v>0.7249598793997479</v>
+        <v>0.9323664388718182</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03908073210606425</v>
+        <v>-0.1285815229469241</v>
       </c>
       <c r="C8">
-        <v>0.476833024709525</v>
+        <v>0.5264431630486278</v>
       </c>
       <c r="D8">
-        <v>0.409094268446219</v>
+        <v>0.5203200017941761</v>
       </c>
       <c r="E8">
-        <v>0.6396047751902881</v>
+        <v>0.7213321022900452</v>
       </c>
       <c r="F8">
-        <v>0.6593467189670075</v>
+        <v>0.7316238571562934</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04629975205653263</v>
+        <v>0.08851026789393576</v>
       </c>
       <c r="C9">
-        <v>0.4102896313898315</v>
+        <v>0.4260801985527543</v>
       </c>
       <c r="D9">
-        <v>0.3245141161252205</v>
+        <v>0.3054846069715224</v>
       </c>
       <c r="E9">
-        <v>0.5696614048057148</v>
+        <v>0.5527066192579227</v>
       </c>
       <c r="F9">
-        <v>0.5877047811049635</v>
+        <v>0.5634659783389385</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007747740397374882</v>
+        <v>0.007460085389865952</v>
       </c>
       <c r="C10">
-        <v>0.3348337809727632</v>
+        <v>0.3714499647231649</v>
       </c>
       <c r="D10">
-        <v>0.261718090368209</v>
+        <v>0.2993920067773447</v>
       </c>
       <c r="E10">
-        <v>0.5115839035468268</v>
+        <v>0.5471672566750908</v>
       </c>
       <c r="F10">
-        <v>0.5308348200579344</v>
+        <v>0.5663192757087402</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.008384872907047361</v>
+        <v>0.005873690370570317</v>
       </c>
       <c r="C11">
-        <v>0.3303106150213118</v>
+        <v>0.3581201956056038</v>
       </c>
       <c r="D11">
-        <v>0.2394032953374836</v>
+        <v>0.2817709375354674</v>
       </c>
       <c r="E11">
-        <v>0.4892885603991611</v>
+        <v>0.5308210032915686</v>
       </c>
       <c r="F11">
-        <v>0.509192895683094</v>
+        <v>0.5524621921347255</v>
       </c>
       <c r="G11">
         <v>13</v>
